--- a/BalanceSheet/CTAS_bal.xlsx
+++ b/BalanceSheet/CTAS_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1271000.0</v>
+        <v>533000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-47005000.0</v>
+        <v>534000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-77944000.0</v>
+        <v>488000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-56993000.0</v>
+        <v>409000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-4378000.0</v>
+        <v>353000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>348304000.0</v>
@@ -1669,19 +1669,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-37115000.0</v>
+        <v>238000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>21870000.0</v>
+        <v>274000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>20358000.0</v>
+        <v>253000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-11642000.0</v>
+        <v>231000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-13784000.0</v>
+        <v>243000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>254611000.0</v>
@@ -2849,19 +2849,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-13160000.0</v>
+        <v>390000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-14383000.0</v>
+        <v>376000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-8716000.0</v>
+        <v>385000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-21265000.0</v>
+        <v>389000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-2619000.0</v>
+        <v>424000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>443857000.0</v>
